--- a/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
+++ b/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T14:14:23+00:00</t>
+    <t>2025-12-15T09:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
+++ b/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T09:06:09+00:00</t>
+    <t>2025-12-15T10:48:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
+++ b/testMappingEntete/ig/StructureDefinition-fr-lm-comparaison-examens-imagerie.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:48:02+00:00</t>
+    <t>2025-12-15T10:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
